--- a/biology/Botanique/Phegopteris_connectilis/Phegopteris_connectilis.xlsx
+++ b/biology/Botanique/Phegopteris_connectilis/Phegopteris_connectilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thélyptère fougère-du-hêtre
-Phegopteris connectilis (autrefois Thelypteris phegopteris) est une espèce de Fougères de la famille des Thelypteridaceae. Elle est appelée Thélyptère fougère-du-hêtre[1]. 
+Phegopteris connectilis (autrefois Thelypteris phegopteris) est une espèce de Fougères de la famille des Thelypteridaceae. Elle est appelée Thélyptère fougère-du-hêtre. 
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Basionyme selon Tropicos                                           (21 mai 2013)[2] :  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Basionyme selon Tropicos                                           (21 mai 2013) :  
 Polypodium connectile Michx., 1803
-Synonymes selon Tropicos                                           (21 mai 2013)[2] : 
+Synonymes selon Tropicos                                           (21 mai 2013) : 
 Dryopteris phegopteris (L.) C. Chr., 1905
 Lastrea phegopteris Bory ex Newnham
 Phegopteris polypodioides Fée, 1852
@@ -549,9 +563,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (21 mai 2013)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (21 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 variété Thelypteris phegopteris var. cruciata (Kaulf.) Ching</t>
         </is>
       </c>
